--- a/biology/Zoologie/Artaius/Artaius.xlsx
+++ b/biology/Zoologie/Artaius/Artaius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Artaius est une épithète celtique[1] appliquée au dieu romain Mercure pendant la période romano-celtique.
+Artaius est une épithète celtique appliquée au dieu romain Mercure pendant la période romano-celtique.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En gaulois, le mot artos signifie «ours», et artaios aurait été un dérivé[1] (signifiant quelque chose comme «ursine»). Miranda Green considère Mercury Artaius comme ayant été un dieu ours[2]. Il est également possible qu'Artaius dérive d'un nom de lieu (de sorte que, en tant que "Artaian Mercury", il n'aurait qu'une association indirecte avec des ours.) Sur la base de l'inscription trouvée à Beaucroissant, Auguste Longnon a supposé que le lieu était appelé Artay. Il existe d'ailleurs une ville du même nom, Artaix, en Saône-et-Loire[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En gaulois, le mot artos signifie «ours», et artaios aurait été un dérivé (signifiant quelque chose comme «ursine»). Miranda Green considère Mercury Artaius comme ayant été un dieu ours. Il est également possible qu'Artaius dérive d'un nom de lieu (de sorte que, en tant que "Artaian Mercury", il n'aurait qu'une association indirecte avec des ours.) Sur la base de l'inscription trouvée à Beaucroissant, Auguste Longnon a supposé que le lieu était appelé Artay. Il existe d'ailleurs une ville du même nom, Artaix, en Saône-et-Loire.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Inscriptions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Artaius est connu grâce à une seule inscription à Beaucroissant en Isère:
 MERCVRIO
@@ -551,7 +567,7 @@
 SACR
 SEX GEMINIVS
 CVPITVS
-EX VOTO[4]
+EX VOTO
 "À l'auguste Mercure Artaius, Sextus Geminius Cupitus (a consacré cette pierre) sacrée en accomplissement d'un vœu."</t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Artaius est aussi le nom d'un groupe de metal folk-prog italien.
 </t>
